--- a/林旭诚/个人中心web接口文档.xlsx
+++ b/林旭诚/个人中心web接口文档.xlsx
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string User_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string picGrowthCurve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,11 +122,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功：1 失败：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用于个个管理中退出登录功能，成功返回登录界面，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：true 失败：false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,10 +212,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,13 +535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -561,128 +561,128 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">

--- a/林旭诚/个人中心web接口文档.xlsx
+++ b/林旭诚/个人中心web接口文档.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getDetailedInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string User_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>成功：true 失败：false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailedInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,23 +565,23 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -590,7 +590,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -599,7 +599,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -608,7 +608,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -617,7 +617,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -626,7 +626,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -634,23 +634,23 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -658,31 +658,31 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">

--- a/林旭诚/个人中心web接口文档.xlsx
+++ b/林旭诚/个人中心web接口文档.xlsx
@@ -102,35 +102,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string picGrowthCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于个人管理中查看个人曲线功能，成功返回用户个人曲线图，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于个个管理中退出登录功能，成功返回登录界面，否则返回null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string User_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：true 失败：false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GrowthCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string picGrowthCurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于个人管理中查看个人曲线功能，成功返回用户个人曲线图，否则返回null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogOff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于个个管理中退出登录功能，成功返回登录界面，否则返回null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string User_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功：true 失败：false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailedInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +522,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -658,31 +658,31 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
